--- a/Adsorption_Model/Model2/Data/My_Selected_X_srednia_vertical.xlsx
+++ b/Adsorption_Model/Model2/Data/My_Selected_X_srednia_vertical.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mat_apple/Library/CloudStorage/OneDrive-QSARLabsp.zo.o/Projekty/Adsorption/Modelowanie/Analysis/app_vertical_v2/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mat_apple/micromamba/envs/umamba/lib/python3.11/site-packages/QSAR_Lab/Adsorption_Model/Model2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC58A5E-F353-3645-BF87-D224FD88861B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F5AE65-338B-A141-8D1F-464667ED218F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>Quadrupole moment (1/3 of trace of diagonalized matrix Q) (Debye×Å)</t>
   </si>
   <si>
-    <t>FDH_horiz_mean</t>
-  </si>
-  <si>
     <t>MW</t>
   </si>
   <si>
@@ -962,7 +959,10 @@
     <t>Hamaker</t>
   </si>
   <si>
-    <t xml:space="preserve">FDV (-. +)_mean(kcal/mol) </t>
+    <t xml:space="preserve">FDV_mean (kcal/mol) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDH_mean (kcal/mol) </t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1047,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office 2013 — 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
     <a:clrScheme name="Pakiet Office">
       <a:dk1>
@@ -1370,7 +1370,7 @@
   <dimension ref="A1:K301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1386,30 +1386,30 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1.1299999999999999</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>1.1299999999999999</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>1.1299999999999999</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>1.1299999999999999</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>1.1299999999999999</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>1.1299999999999999</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>1.1299999999999999</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>1.1299999999999999</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>1.1299999999999999</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>1.1299999999999999</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>1.1000000000000001</v>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>1.1000000000000001</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>1.1000000000000001</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>1.1000000000000001</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>1.1000000000000001</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>1.1000000000000001</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>1.1000000000000001</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>1.1000000000000001</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>1.1000000000000001</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>1.1000000000000001</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0.97299999999999998</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0.97299999999999998</v>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>0.97299999999999998</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>0.97299999999999998</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>0.97299999999999998</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0.97299999999999998</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>0.97299999999999998</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>0.97299999999999998</v>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>0.97299999999999998</v>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>0.97299999999999998</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>1.1327</v>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>1.1327</v>
@@ -2529,7 +2529,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>1.1327</v>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>1.1327</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>1.1327</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>1.1327</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38">
         <v>1.1327</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>1.1327</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40">
         <v>1.1327</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>1.1327</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>1.665</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43">
         <v>1.665</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44">
         <v>1.665</v>
@@ -2914,7 +2914,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>1.665</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46">
         <v>1.665</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47">
         <v>1.665</v>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48">
         <v>1.665</v>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>1.665</v>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50">
         <v>1.665</v>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51">
         <v>1.665</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0.92</v>
@@ -3194,7 +3194,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53">
         <v>0.92</v>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54">
         <v>0.92</v>
@@ -3264,7 +3264,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55">
         <v>0.92</v>
@@ -3299,7 +3299,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56">
         <v>0.92</v>
@@ -3334,7 +3334,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0.92</v>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58">
         <v>0.92</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59">
         <v>0.92</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60">
         <v>0.92</v>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>0.92</v>
@@ -3509,7 +3509,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0.37200926899999998</v>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63">
         <v>0.37200926899999998</v>
@@ -3579,7 +3579,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64">
         <v>0.37200926899999998</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65">
         <v>0.37200926899999998</v>
@@ -3649,7 +3649,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66">
         <v>0.37200926899999998</v>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67">
         <v>0.37200926899999998</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68">
         <v>0.37200926899999998</v>
@@ -3754,7 +3754,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69">
         <v>0.37200926899999998</v>
@@ -3789,7 +3789,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0.37200926899999998</v>
@@ -3824,7 +3824,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71">
         <v>0.37200926899999998</v>
@@ -3859,7 +3859,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72">
         <v>0.396798137</v>
@@ -3894,7 +3894,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73">
         <v>0.396798137</v>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B74">
         <v>0.396798137</v>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75">
         <v>0.396798137</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76">
         <v>0.396798137</v>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77">
         <v>0.396798137</v>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78">
         <v>0.396798137</v>
@@ -4104,7 +4104,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0.396798137</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B80">
         <v>0.396798137</v>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B81">
         <v>0.396798137</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0.32207628500000002</v>
@@ -4244,7 +4244,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B83">
         <v>0.32207628500000002</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0.32207628500000002</v>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B85">
         <v>0.32207628500000002</v>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B86">
         <v>0.32207628500000002</v>
@@ -4384,7 +4384,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B87">
         <v>0.32207628500000002</v>
@@ -4419,7 +4419,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B88">
         <v>0.32207628500000002</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B89">
         <v>0.32207628500000002</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B90">
         <v>0.32207628500000002</v>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B91">
         <v>0.32207628500000002</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B92">
         <v>0.42899602799999997</v>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93">
         <v>0.42899602799999997</v>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B94">
         <v>0.42899602799999997</v>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B95">
         <v>0.42899602799999997</v>
@@ -4699,7 +4699,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0.42899602799999997</v>
@@ -4734,7 +4734,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0.42899602799999997</v>
@@ -4769,7 +4769,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B98">
         <v>0.42899602799999997</v>
@@ -4804,7 +4804,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0.42899602799999997</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0.42899602799999997</v>
@@ -4874,7 +4874,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101">
         <v>0.42899602799999997</v>
@@ -4909,7 +4909,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0.4</v>
@@ -4944,7 +4944,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0.4</v>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0.4</v>
@@ -5014,7 +5014,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B105">
         <v>0.4</v>
@@ -5049,7 +5049,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B106">
         <v>0.4</v>
@@ -5084,7 +5084,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B107">
         <v>0.4</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108">
         <v>0.4</v>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B109">
         <v>0.4</v>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B110">
         <v>0.4</v>
@@ -5224,7 +5224,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B111">
         <v>0.4</v>
@@ -5259,7 +5259,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B112">
         <v>0.80600000000000005</v>
@@ -5294,7 +5294,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B113">
         <v>0.80600000000000005</v>
@@ -5329,7 +5329,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B114">
         <v>0.80600000000000005</v>
@@ -5364,7 +5364,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B115">
         <v>0.80600000000000005</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B116">
         <v>0.80600000000000005</v>
@@ -5434,7 +5434,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B117">
         <v>0.80600000000000005</v>
@@ -5469,7 +5469,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B118">
         <v>0.80600000000000005</v>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B119">
         <v>0.80600000000000005</v>
@@ -5539,7 +5539,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B120">
         <v>0.80600000000000005</v>
@@ -5574,7 +5574,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B121">
         <v>0.80600000000000005</v>
@@ -5609,7 +5609,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B122">
         <v>1.6</v>
@@ -5644,7 +5644,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B123">
         <v>1.6</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B124">
         <v>1.6</v>
@@ -5714,7 +5714,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B125">
         <v>1.6</v>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B126">
         <v>1.6</v>
@@ -5784,7 +5784,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B127">
         <v>1.6</v>
@@ -5819,7 +5819,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B128">
         <v>1.6</v>
@@ -5854,7 +5854,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B129">
         <v>1.6</v>
@@ -5889,7 +5889,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B130">
         <v>1.6</v>
@@ -5924,7 +5924,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B131">
         <v>1.6</v>
@@ -5959,7 +5959,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B132">
         <v>1.28</v>
@@ -5994,7 +5994,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B133">
         <v>1.28</v>
@@ -6029,7 +6029,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B134">
         <v>1.28</v>
@@ -6064,7 +6064,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B135">
         <v>1.28</v>
@@ -6099,7 +6099,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B136">
         <v>1.28</v>
@@ -6134,7 +6134,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B137">
         <v>1.28</v>
@@ -6169,7 +6169,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B138">
         <v>1.28</v>
@@ -6204,7 +6204,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B139">
         <v>1.28</v>
@@ -6239,7 +6239,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B140">
         <v>1.28</v>
@@ -6274,7 +6274,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B141">
         <v>1.28</v>
@@ -6309,7 +6309,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B142">
         <v>1.32</v>
@@ -6344,7 +6344,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B143">
         <v>1.32</v>
@@ -6379,7 +6379,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B144">
         <v>1.32</v>
@@ -6414,7 +6414,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B145">
         <v>1.32</v>
@@ -6449,7 +6449,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B146">
         <v>1.32</v>
@@ -6484,7 +6484,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B147">
         <v>1.32</v>
@@ -6519,7 +6519,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B148">
         <v>1.32</v>
@@ -6554,7 +6554,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B149">
         <v>1.32</v>
@@ -6589,7 +6589,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B150">
         <v>1.32</v>
@@ -6624,7 +6624,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B151">
         <v>1.32</v>
@@ -6659,7 +6659,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B152">
         <v>1.2522197159999999</v>
@@ -6694,7 +6694,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B153">
         <v>1.2522197159999999</v>
@@ -6729,7 +6729,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B154">
         <v>1.2522197159999999</v>
@@ -6764,7 +6764,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B155">
         <v>1.2522197159999999</v>
@@ -6799,7 +6799,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B156">
         <v>1.2522197159999999</v>
@@ -6834,7 +6834,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B157">
         <v>1.2522197159999999</v>
@@ -6869,7 +6869,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B158">
         <v>1.2522197159999999</v>
@@ -6904,7 +6904,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B159">
         <v>1.2522197159999999</v>
@@ -6939,7 +6939,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B160">
         <v>1.2522197159999999</v>
@@ -6974,7 +6974,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B161">
         <v>1.2522197159999999</v>
@@ -7009,7 +7009,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B162">
         <v>1.75</v>
@@ -7044,7 +7044,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B163">
         <v>1.75</v>
@@ -7079,7 +7079,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B164">
         <v>1.75</v>
@@ -7114,7 +7114,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B165">
         <v>1.75</v>
@@ -7149,7 +7149,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B166">
         <v>1.75</v>
@@ -7184,7 +7184,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B167">
         <v>1.75</v>
@@ -7219,7 +7219,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B168">
         <v>1.75</v>
@@ -7254,7 +7254,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B169">
         <v>1.75</v>
@@ -7289,7 +7289,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B170">
         <v>1.75</v>
@@ -7324,7 +7324,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B171">
         <v>1.75</v>
@@ -7359,7 +7359,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B172">
         <v>1.35</v>
@@ -7394,7 +7394,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B173">
         <v>1.35</v>
@@ -7429,7 +7429,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B174">
         <v>1.35</v>
@@ -7464,7 +7464,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B175">
         <v>1.35</v>
@@ -7499,7 +7499,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B176">
         <v>1.35</v>
@@ -7534,7 +7534,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B177">
         <v>1.35</v>
@@ -7569,7 +7569,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B178">
         <v>1.35</v>
@@ -7604,7 +7604,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B179">
         <v>1.35</v>
@@ -7639,7 +7639,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B180">
         <v>1.35</v>
@@ -7674,7 +7674,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B181">
         <v>1.35</v>
@@ -7709,7 +7709,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B182">
         <v>1.7384889240000001</v>
@@ -7744,7 +7744,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B183">
         <v>1.7384889240000001</v>
@@ -7779,7 +7779,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B184">
         <v>1.7384889240000001</v>
@@ -7814,7 +7814,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B185">
         <v>1.7384889240000001</v>
@@ -7849,7 +7849,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B186">
         <v>1.7384889240000001</v>
@@ -7884,7 +7884,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B187">
         <v>1.7384889240000001</v>
@@ -7919,7 +7919,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B188">
         <v>1.7384889240000001</v>
@@ -7954,7 +7954,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B189">
         <v>1.7384889240000001</v>
@@ -7989,7 +7989,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B190">
         <v>1.7384889240000001</v>
@@ -8024,7 +8024,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B191">
         <v>1.7384889240000001</v>
@@ -8059,7 +8059,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B192">
         <v>1.17</v>
@@ -8094,7 +8094,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B193">
         <v>1.17</v>
@@ -8129,7 +8129,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B194">
         <v>1.17</v>
@@ -8164,7 +8164,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B195">
         <v>1.17</v>
@@ -8199,7 +8199,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B196">
         <v>1.17</v>
@@ -8234,7 +8234,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B197">
         <v>1.17</v>
@@ -8269,7 +8269,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B198">
         <v>1.17</v>
@@ -8304,7 +8304,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B199">
         <v>1.17</v>
@@ -8339,7 +8339,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B200">
         <v>1.17</v>
@@ -8374,7 +8374,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B201">
         <v>1.17</v>
@@ -8409,7 +8409,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B202">
         <v>1.1299999999999999</v>
@@ -8444,7 +8444,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B203">
         <v>1.1299999999999999</v>
@@ -8479,7 +8479,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B204">
         <v>1.1299999999999999</v>
@@ -8514,7 +8514,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B205">
         <v>1.1299999999999999</v>
@@ -8549,7 +8549,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B206">
         <v>1.1299999999999999</v>
@@ -8584,7 +8584,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B207">
         <v>1.1000000000000001</v>
@@ -8619,7 +8619,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B208">
         <v>1.1000000000000001</v>
@@ -8654,7 +8654,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B209">
         <v>1.1000000000000001</v>
@@ -8689,7 +8689,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B210">
         <v>1.1000000000000001</v>
@@ -8724,7 +8724,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B211">
         <v>1.1000000000000001</v>
@@ -8759,7 +8759,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B212">
         <v>0.97299999999999998</v>
@@ -8794,7 +8794,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B213">
         <v>0.97299999999999998</v>
@@ -8829,7 +8829,7 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B214">
         <v>0.97299999999999998</v>
@@ -8864,7 +8864,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B215">
         <v>0.97299999999999998</v>
@@ -8899,7 +8899,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B216">
         <v>0.97299999999999998</v>
@@ -8934,7 +8934,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B217">
         <v>1.1327</v>
@@ -8969,7 +8969,7 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B218">
         <v>1.1327</v>
@@ -9004,7 +9004,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B219">
         <v>1.1327</v>
@@ -9039,7 +9039,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B220">
         <v>1.1327</v>
@@ -9074,7 +9074,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B221">
         <v>1.1327</v>
@@ -9109,7 +9109,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B222">
         <v>1.665</v>
@@ -9144,7 +9144,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B223">
         <v>1.665</v>
@@ -9179,7 +9179,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B224">
         <v>1.665</v>
@@ -9214,7 +9214,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B225">
         <v>1.665</v>
@@ -9249,7 +9249,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B226">
         <v>1.665</v>
@@ -9284,7 +9284,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B227">
         <v>0.92</v>
@@ -9319,7 +9319,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B228">
         <v>0.92</v>
@@ -9354,7 +9354,7 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B229">
         <v>0.92</v>
@@ -9389,7 +9389,7 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B230">
         <v>0.92</v>
@@ -9424,7 +9424,7 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B231">
         <v>0.92</v>
@@ -9459,7 +9459,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B232">
         <v>0.37200926899999998</v>
@@ -9494,7 +9494,7 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B233">
         <v>0.37200926899999998</v>
@@ -9529,7 +9529,7 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B234">
         <v>0.37200926899999998</v>
@@ -9564,7 +9564,7 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B235">
         <v>0.37200926899999998</v>
@@ -9599,7 +9599,7 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B236">
         <v>0.37200926899999998</v>
@@ -9634,7 +9634,7 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B237">
         <v>0.396798137</v>
@@ -9669,7 +9669,7 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B238">
         <v>0.396798137</v>
@@ -9704,7 +9704,7 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B239">
         <v>0.396798137</v>
@@ -9739,7 +9739,7 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B240">
         <v>0.396798137</v>
@@ -9774,7 +9774,7 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B241">
         <v>0.396798137</v>
@@ -9809,7 +9809,7 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B242">
         <v>0.32207628500000002</v>
@@ -9844,7 +9844,7 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B243">
         <v>0.32207628500000002</v>
@@ -9879,7 +9879,7 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B244">
         <v>0.32207628500000002</v>
@@ -9914,7 +9914,7 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B245">
         <v>0.32207628500000002</v>
@@ -9949,7 +9949,7 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B246">
         <v>0.32207628500000002</v>
@@ -9984,7 +9984,7 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B247">
         <v>0.42899602799999997</v>
@@ -10019,7 +10019,7 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B248">
         <v>0.42899602799999997</v>
@@ -10054,7 +10054,7 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B249">
         <v>0.42899602799999997</v>
@@ -10089,7 +10089,7 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B250">
         <v>0.42899602799999997</v>
@@ -10124,7 +10124,7 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B251">
         <v>0.42899602799999997</v>
@@ -10159,7 +10159,7 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B252">
         <v>0.4</v>
@@ -10194,7 +10194,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B253">
         <v>0.4</v>
@@ -10229,7 +10229,7 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B254">
         <v>0.4</v>
@@ -10264,7 +10264,7 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B255">
         <v>0.4</v>
@@ -10299,7 +10299,7 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B256">
         <v>0.4</v>
@@ -10334,7 +10334,7 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B257">
         <v>0.80600000000000005</v>
@@ -10369,7 +10369,7 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B258">
         <v>0.80600000000000005</v>
@@ -10404,7 +10404,7 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B259">
         <v>0.80600000000000005</v>
@@ -10439,7 +10439,7 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B260">
         <v>0.80600000000000005</v>
@@ -10474,7 +10474,7 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B261">
         <v>0.80600000000000005</v>
@@ -10509,7 +10509,7 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B262">
         <v>1.6</v>
@@ -10544,7 +10544,7 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B263">
         <v>1.6</v>
@@ -10579,7 +10579,7 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B264">
         <v>1.6</v>
@@ -10614,7 +10614,7 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B265">
         <v>1.6</v>
@@ -10649,7 +10649,7 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B266">
         <v>1.6</v>
@@ -10684,7 +10684,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B267">
         <v>1.28</v>
@@ -10719,7 +10719,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B268">
         <v>1.28</v>
@@ -10754,7 +10754,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B269">
         <v>1.28</v>
@@ -10789,7 +10789,7 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B270">
         <v>1.28</v>
@@ -10824,7 +10824,7 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B271">
         <v>1.28</v>
@@ -10859,7 +10859,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B272">
         <v>1.32</v>
@@ -10894,7 +10894,7 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B273">
         <v>1.32</v>
@@ -10929,7 +10929,7 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B274">
         <v>1.32</v>
@@ -10964,7 +10964,7 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B275">
         <v>1.32</v>
@@ -10999,7 +10999,7 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B276">
         <v>1.32</v>
@@ -11034,7 +11034,7 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B277">
         <v>1.2522197159999999</v>
@@ -11069,7 +11069,7 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B278">
         <v>1.2522197159999999</v>
@@ -11104,7 +11104,7 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B279">
         <v>1.2522197159999999</v>
@@ -11139,7 +11139,7 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B280">
         <v>1.2522197159999999</v>
@@ -11174,7 +11174,7 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B281">
         <v>1.2522197159999999</v>
@@ -11209,7 +11209,7 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B282">
         <v>1.75</v>
@@ -11244,7 +11244,7 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B283">
         <v>1.75</v>
@@ -11279,7 +11279,7 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B284">
         <v>1.75</v>
@@ -11314,7 +11314,7 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B285">
         <v>1.75</v>
@@ -11349,7 +11349,7 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B286">
         <v>1.75</v>
@@ -11384,7 +11384,7 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B287">
         <v>1.35</v>
@@ -11419,7 +11419,7 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B288">
         <v>1.35</v>
@@ -11454,7 +11454,7 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B289">
         <v>1.35</v>
@@ -11489,7 +11489,7 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B290">
         <v>1.35</v>
@@ -11524,7 +11524,7 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B291">
         <v>1.35</v>
@@ -11559,7 +11559,7 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B292">
         <v>1.7384889240000001</v>
@@ -11594,7 +11594,7 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B293">
         <v>1.7384889240000001</v>
@@ -11629,7 +11629,7 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B294">
         <v>1.7384889240000001</v>
@@ -11664,7 +11664,7 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B295">
         <v>1.7384889240000001</v>
@@ -11699,7 +11699,7 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B296">
         <v>1.7384889240000001</v>
@@ -11734,7 +11734,7 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B297">
         <v>1.17</v>
@@ -11769,7 +11769,7 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B298">
         <v>1.17</v>
@@ -11804,7 +11804,7 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B299">
         <v>1.17</v>
@@ -11839,7 +11839,7 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B300">
         <v>1.17</v>
@@ -11874,7 +11874,7 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B301">
         <v>1.17</v>
